--- a/Util/Ordering Info/SparkWireInterfacev1.0/AssemblyFiles/BOM.xlsx
+++ b/Util/Ordering Info/SparkWireInterfacev1.0/AssemblyFiles/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernardo.Perez\ArduinoSketchbook\Arduino-Power-Box-Tester\util\Ordering Info\SparkWireInterfacev1.0\Assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernardo.Perez\ArduinoSketchbook\Arduino-Power-Box-Tester\util\Ordering Info\SparkWireInterfacev1.0\AssemblyFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42EB39B-52FD-41D9-A749-22D42F3E50E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2335CC14-2B81-42F5-A2D9-C22EFCF96FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7708390F-2016-49A3-B238-8E28142561CF}"/>
+    <workbookView xWindow="-28920" yWindow="-11250" windowWidth="29040" windowHeight="15840" xr2:uid="{7708390F-2016-49A3-B238-8E28142561CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Description</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>Solid State Relay, DC input, AC/DC output</t>
+  </si>
+  <si>
+    <t>Quick Fit Terminal, Male .250"</t>
+  </si>
+  <si>
+    <t>1287-R</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>352210MJT</t>
   </si>
 </sst>
 </file>
@@ -504,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16AA6FF-6C0B-4447-9390-74E0640C9AA6}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,6 +587,9 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
@@ -589,6 +604,9 @@
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
@@ -662,6 +680,23 @@
       </c>
       <c r="E9" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
